--- a/biology/Médecine/Frank_J._Dixon/Frank_J._Dixon.xlsx
+++ b/biology/Médecine/Frank_J._Dixon/Frank_J._Dixon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frank James Dixon (9 mars 1920-8 février 2008[1]) est un chercheur biomédical, surtout connu pour ses recherches sur les maladies du système immunitaire qui peuvent endommager d'autres organes du corps [2]. Dixon est également connu pour avoir développé des techniques impliquant des traces d'iode pour étudier les protéines [2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank James Dixon (9 mars 1920-8 février 2008) est un chercheur biomédical, surtout connu pour ses recherches sur les maladies du système immunitaire qui peuvent endommager d'autres organes du corps . Dixon est également connu pour avoir développé des techniques impliquant des traces d'iode pour étudier les protéines .
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Saint Paul, Dixon obtient son baccalauréat et son doctorat en médecine de l'Université du Minnesota [3]. Il rejoint la marine américaine en 1943, après avoir terminé son MD. Il est cofondateur et directeur du Scripps Research Institute à San Diego [4].
-En 1981, Dixon est membre fondateur du Conseil culturel mondial [5] et membre de l'Académie nationale des sciences des États-Unis.
-Il obtient le Prix international de la Fondation Gairdner en 1969, le Prix Lasker en 1975, le Prix Dickson de médecine en 1976 et le Prix Rous-Whipple en 1979 [6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Saint Paul, Dixon obtient son baccalauréat et son doctorat en médecine de l'Université du Minnesota . Il rejoint la marine américaine en 1943, après avoir terminé son MD. Il est cofondateur et directeur du Scripps Research Institute à San Diego .
+En 1981, Dixon est membre fondateur du Conseil culturel mondial  et membre de l'Académie nationale des sciences des États-Unis.
+Il obtient le Prix international de la Fondation Gairdner en 1969, le Prix Lasker en 1975, le Prix Dickson de médecine en 1976 et le Prix Rous-Whipple en 1979 .
 </t>
         </is>
       </c>
